--- a/inputs/190918_data_from_RTS.xlsx
+++ b/inputs/190918_data_from_RTS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" state="visible" r:id="rId2"/>
@@ -160,14 +160,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -189,28 +188,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="8"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -237,6 +214,13 @@
     </font>
     <font>
       <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -296,7 +280,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,30 +306,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,19 +331,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,26 +355,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Hyperlink 2 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_TRA9901" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -463,7 +426,7 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1720,22 +1683,22 @@
       <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C44" s="9" t="n">
         <v>3108620.7215</v>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="10" t="n">
         <v>3146075.7805</v>
       </c>
-      <c r="E44" s="12" t="n">
+      <c r="E44" s="10" t="n">
         <v>3037525.7685</v>
       </c>
-      <c r="F44" s="12" t="n">
+      <c r="F44" s="10" t="n">
         <v>3062212.78042449</v>
       </c>
-      <c r="G44" s="12" t="n">
+      <c r="G44" s="10" t="n">
         <v>3287434.895093</v>
       </c>
-      <c r="H44" s="12" t="n">
+      <c r="H44" s="10" t="n">
         <v>3643908.103363</v>
       </c>
       <c r="I44" s="4" t="n">
@@ -1750,22 +1713,22 @@
       <c r="B45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="11" t="n">
+      <c r="C45" s="9" t="n">
         <v>1524245.0735</v>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="10" t="n">
         <v>1530979.871</v>
       </c>
-      <c r="E45" s="12" t="n">
+      <c r="E45" s="10" t="n">
         <v>1514856.8664</v>
       </c>
-      <c r="F45" s="12" t="n">
+      <c r="F45" s="10" t="n">
         <v>1510942.45511693</v>
       </c>
-      <c r="G45" s="12" t="n">
+      <c r="G45" s="10" t="n">
         <v>1563364.521233</v>
       </c>
-      <c r="H45" s="12" t="n">
+      <c r="H45" s="10" t="n">
         <v>1360010.383257</v>
       </c>
       <c r="I45" s="4" t="n">
@@ -1780,22 +1743,22 @@
       <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C46" s="9" t="n">
         <v>872051.515452868</v>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="10" t="n">
         <v>854874.8</v>
       </c>
-      <c r="E46" s="12" t="n">
+      <c r="E46" s="10" t="n">
         <v>843847.96021</v>
       </c>
-      <c r="F46" s="12" t="n">
+      <c r="F46" s="10" t="n">
         <v>859376.530157506</v>
       </c>
-      <c r="G46" s="12" t="n">
+      <c r="G46" s="10" t="n">
         <v>907153.976</v>
       </c>
-      <c r="H46" s="12" t="n">
+      <c r="H46" s="10" t="n">
         <v>921259.652606</v>
       </c>
       <c r="I46" s="4" t="n">
@@ -1810,22 +1773,22 @@
       <c r="B47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="11" t="n">
+      <c r="C47" s="9" t="n">
         <v>3106968.5855</v>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="10" t="n">
         <v>3113388.3515</v>
       </c>
-      <c r="E47" s="12" t="n">
+      <c r="E47" s="10" t="n">
         <v>3075632.3644</v>
       </c>
-      <c r="F47" s="12" t="n">
+      <c r="F47" s="10" t="n">
         <v>3047525.04585077</v>
       </c>
-      <c r="G47" s="12" t="n">
+      <c r="G47" s="10" t="n">
         <v>3074642.819491</v>
       </c>
-      <c r="H47" s="12" t="n">
+      <c r="H47" s="10" t="n">
         <v>3106744.225656</v>
       </c>
       <c r="I47" s="4" t="n">
@@ -1840,22 +1803,22 @@
       <c r="B48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C48" s="9" t="n">
         <v>3369361.01506694</v>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="10" t="n">
         <v>3400882.1</v>
       </c>
-      <c r="E48" s="12" t="n">
+      <c r="E48" s="10" t="n">
         <v>3449938.2538</v>
       </c>
-      <c r="F48" s="12" t="n">
+      <c r="F48" s="10" t="n">
         <v>3388866.97605045</v>
       </c>
-      <c r="G48" s="12" t="n">
+      <c r="G48" s="10" t="n">
         <v>3451896.371</v>
       </c>
-      <c r="H48" s="12" t="n">
+      <c r="H48" s="10" t="n">
         <v>3443178.011985</v>
       </c>
       <c r="I48" s="4" t="n">
@@ -3134,22 +3097,22 @@
       <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C44" s="9" t="n">
         <v>651038.893</v>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="10" t="n">
         <v>664591.0875</v>
       </c>
-      <c r="E44" s="12" t="n">
+      <c r="E44" s="10" t="n">
         <v>622239.50548</v>
       </c>
-      <c r="F44" s="12" t="n">
+      <c r="F44" s="10" t="n">
         <v>644525.761120045</v>
       </c>
-      <c r="G44" s="12" t="n">
+      <c r="G44" s="10" t="n">
         <v>671804.029029</v>
       </c>
-      <c r="H44" s="12" t="n">
+      <c r="H44" s="10" t="n">
         <v>758573.71862</v>
       </c>
       <c r="I44" s="4" t="n">
@@ -3164,22 +3127,22 @@
       <c r="B45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="11" t="n">
+      <c r="C45" s="9" t="n">
         <v>252355.525</v>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="10" t="n">
         <v>262622.537</v>
       </c>
-      <c r="E45" s="12" t="n">
+      <c r="E45" s="10" t="n">
         <v>259123.31571</v>
       </c>
-      <c r="F45" s="12" t="n">
+      <c r="F45" s="10" t="n">
         <v>265858.92431676</v>
       </c>
-      <c r="G45" s="12" t="n">
+      <c r="G45" s="10" t="n">
         <v>279711.860889</v>
       </c>
-      <c r="H45" s="12" t="n">
+      <c r="H45" s="10" t="n">
         <v>252180.148082</v>
       </c>
       <c r="I45" s="4" t="n">
@@ -3194,22 +3157,22 @@
       <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C46" s="9" t="n">
         <v>167628.266931175</v>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="10" t="n">
         <v>154241.4</v>
       </c>
-      <c r="E46" s="12" t="n">
+      <c r="E46" s="10" t="n">
         <v>143001.202392</v>
       </c>
-      <c r="F46" s="12" t="n">
+      <c r="F46" s="10" t="n">
         <v>152938.50557468</v>
       </c>
-      <c r="G46" s="12" t="n">
+      <c r="G46" s="10" t="n">
         <v>164875.716</v>
       </c>
-      <c r="H46" s="12" t="n">
+      <c r="H46" s="10" t="n">
         <v>169265.180134</v>
       </c>
       <c r="I46" s="4" t="n">
@@ -3224,22 +3187,22 @@
       <c r="B47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="11" t="n">
+      <c r="C47" s="9" t="n">
         <v>502494.6605</v>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="10" t="n">
         <v>528811.4525</v>
       </c>
-      <c r="E47" s="12" t="n">
+      <c r="E47" s="10" t="n">
         <v>510090.90097</v>
       </c>
-      <c r="F47" s="12" t="n">
+      <c r="F47" s="10" t="n">
         <v>516833.224126225</v>
       </c>
-      <c r="G47" s="12" t="n">
+      <c r="G47" s="10" t="n">
         <v>551687.491019</v>
       </c>
-      <c r="H47" s="12" t="n">
+      <c r="H47" s="10" t="n">
         <v>563748.933377</v>
       </c>
       <c r="I47" s="4" t="n">
@@ -3254,22 +3217,22 @@
       <c r="B48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C48" s="9" t="n">
         <v>575283.200900945</v>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="10" t="n">
         <v>573957.2</v>
       </c>
-      <c r="E48" s="12" t="n">
+      <c r="E48" s="10" t="n">
         <v>575547.633767</v>
       </c>
-      <c r="F48" s="12" t="n">
+      <c r="F48" s="10" t="n">
         <v>578018.157496344</v>
       </c>
-      <c r="G48" s="12" t="n">
+      <c r="G48" s="10" t="n">
         <v>606753.627</v>
       </c>
-      <c r="H48" s="12" t="n">
+      <c r="H48" s="10" t="n">
         <v>619111.363592</v>
       </c>
       <c r="I48" s="4" t="n">
@@ -3295,8 +3258,8 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4548,22 +4511,22 @@
       <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C44" s="9" t="n">
         <v>561137.9695</v>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="10" t="n">
         <v>575097.0295</v>
       </c>
-      <c r="E44" s="12" t="n">
+      <c r="E44" s="10" t="n">
         <v>568448.923245</v>
       </c>
-      <c r="F44" s="12" t="n">
+      <c r="F44" s="10" t="n">
         <v>577716.271512859</v>
       </c>
-      <c r="G44" s="12" t="n">
+      <c r="G44" s="10" t="n">
         <v>627835.101786</v>
       </c>
-      <c r="H44" s="12" t="n">
+      <c r="H44" s="10" t="n">
         <v>700681.100222</v>
       </c>
       <c r="I44" s="4" t="n">
@@ -4578,22 +4541,22 @@
       <c r="B45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="11" t="n">
+      <c r="C45" s="9" t="n">
         <v>113521.716</v>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="10" t="n">
         <v>119177.1355</v>
       </c>
-      <c r="E45" s="12" t="n">
+      <c r="E45" s="10" t="n">
         <v>121849.346616</v>
       </c>
-      <c r="F45" s="12" t="n">
+      <c r="F45" s="10" t="n">
         <v>120744.020804522</v>
       </c>
-      <c r="G45" s="12" t="n">
+      <c r="G45" s="10" t="n">
         <v>129765.044309</v>
       </c>
-      <c r="H45" s="12" t="n">
+      <c r="H45" s="10" t="n">
         <v>83843.135724</v>
       </c>
       <c r="I45" s="4" t="n">
@@ -4608,22 +4571,22 @@
       <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C46" s="9" t="n">
         <v>17721.7429631347</v>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="10" t="n">
         <v>15244.8</v>
       </c>
-      <c r="E46" s="12" t="n">
+      <c r="E46" s="10" t="n">
         <v>13333.8401219</v>
       </c>
-      <c r="F46" s="12" t="n">
+      <c r="F46" s="10" t="n">
         <v>14288.3070115356</v>
       </c>
-      <c r="G46" s="12" t="n">
+      <c r="G46" s="10" t="n">
         <v>14454.179</v>
       </c>
-      <c r="H46" s="12" t="n">
+      <c r="H46" s="10" t="n">
         <v>14378.194802</v>
       </c>
       <c r="I46" s="4" t="n">
@@ -4638,22 +4601,22 @@
       <c r="B47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="11" t="n">
+      <c r="C47" s="9" t="n">
         <v>97184.462</v>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="10" t="n">
         <v>100776.792</v>
       </c>
-      <c r="E47" s="12" t="n">
+      <c r="E47" s="10" t="n">
         <v>97690.36453</v>
       </c>
-      <c r="F47" s="12" t="n">
+      <c r="F47" s="10" t="n">
         <v>98108.2292266753</v>
       </c>
-      <c r="G47" s="12" t="n">
+      <c r="G47" s="10" t="n">
         <v>104464.414086</v>
       </c>
-      <c r="H47" s="12" t="n">
+      <c r="H47" s="10" t="n">
         <v>105452.564072</v>
       </c>
       <c r="I47" s="4" t="n">
@@ -4668,22 +4631,22 @@
       <c r="B48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C48" s="9" t="n">
         <v>60703.4218889761</v>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="10" t="n">
         <v>55464.8</v>
       </c>
-      <c r="E48" s="12" t="n">
+      <c r="E48" s="10" t="n">
         <v>51052.41411</v>
       </c>
-      <c r="F48" s="12" t="n">
+      <c r="F48" s="10" t="n">
         <v>49315.0743317136</v>
       </c>
-      <c r="G48" s="12" t="n">
+      <c r="G48" s="10" t="n">
         <v>50878.871</v>
       </c>
-      <c r="H48" s="12" t="n">
+      <c r="H48" s="10" t="n">
         <v>48647.147616</v>
       </c>
       <c r="I48" s="4" t="n">
